--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>351973.6268151979</v>
+        <v>344962.8976992032</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892727</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>325.0894948406335</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>94.08208753910867</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -738,13 +738,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>51.29341608803905</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968142</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5.072982495346911</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>129.6022067968808</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +908,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>45.43353174361889</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>329.1856030634149</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968142</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>44.83908341485817</v>
       </c>
     </row>
     <row r="7">
@@ -1054,28 +1054,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>68.90612106995867</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>71.78052146383344</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2367639713936</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>193.6632574646284</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>66.54037562130419</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>110.0638926378908</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>90.68710561078868</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>61.02829822271369</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>55.63584681832589</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>23.2367990670148</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>102.7703814981954</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>68.14252674140405</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
-        <v>9.441730522967218</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>133.4872529099099</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541617</v>
       </c>
       <c r="V17" t="n">
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507318</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391324</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542122</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954283</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345502</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838912</v>
+        <v>24.17382596575003</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828925</v>
+        <v>52.06849973565015</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161068</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696767</v>
+        <v>140.4152824970376</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034461</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813247</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.221621716203</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885342</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431757</v>
+        <v>70.57601873167847</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459998</v>
+        <v>55.72314698196088</v>
       </c>
       <c r="D34" t="n">
-        <v>47.7403246664397</v>
+        <v>41.29686219380061</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931882</v>
+        <v>41.22330424667972</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908608</v>
+        <v>42.97275566644699</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147822</v>
+        <v>53.79159358883912</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805026</v>
+        <v>41.14384575541116</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922219</v>
+        <v>18.98356133658309</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367811</v>
+        <v>9.882059701039012</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920543</v>
+        <v>88.00800320656633</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404474</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480635</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714524</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
@@ -3746,7 +3746,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3758,7 +3758,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
@@ -3964,7 +3964,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799154</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
@@ -3995,7 +3995,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117996</v>
@@ -4201,7 +4201,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393.845272407717</v>
+        <v>1194.186612014918</v>
       </c>
       <c r="C2" t="n">
-        <v>65.47204529596598</v>
+        <v>1194.186612014918</v>
       </c>
       <c r="D2" t="n">
-        <v>65.47204529596598</v>
+        <v>1194.186612014918</v>
       </c>
       <c r="E2" t="n">
-        <v>65.47204529596598</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634781</v>
+        <v>374.7086486614406</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475504</v>
+        <v>365.5862971898479</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035832</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L2" t="n">
-        <v>673.8990329354912</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354912</v>
+        <v>1028.526606934766</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572953</v>
+        <v>1542.129285544455</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465282</v>
+        <v>1542.129285544455</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675977</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737752</v>
+        <v>1980.12992616126</v>
       </c>
       <c r="T2" t="n">
-        <v>1951.282367297169</v>
+        <v>1980.12992616126</v>
       </c>
       <c r="U2" t="n">
-        <v>1951.282367297169</v>
+        <v>1980.12992616126</v>
       </c>
       <c r="V2" t="n">
-        <v>1951.282367297169</v>
+        <v>1980.12992616126</v>
       </c>
       <c r="W2" t="n">
-        <v>1580.283332265456</v>
+        <v>1980.12992616126</v>
       </c>
       <c r="X2" t="n">
-        <v>1190.830727198513</v>
+        <v>1590.677321094317</v>
       </c>
       <c r="Y2" t="n">
-        <v>794.3400181191139</v>
+        <v>1194.186612014918</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813206</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>556.1927859813206</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>426.103818602801</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>129.8006631557376</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569815</v>
+        <v>361.242392818565</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875483</v>
+        <v>1358.411157326567</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875483</v>
+        <v>1872.013835936256</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466464</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182861</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737752</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737752</v>
+        <v>1916.314617614859</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813767</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492409</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863476</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996763</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467747</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.989120422282</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>661.6122798674851</v>
+        <v>46.62747149911317</v>
       </c>
       <c r="C4" t="n">
-        <v>661.6122798674851</v>
+        <v>46.62747149911317</v>
       </c>
       <c r="D4" t="n">
-        <v>661.6122798674851</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="E4" t="n">
-        <v>661.6122798674851</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="F4" t="n">
-        <v>530.7009598706358</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="G4" t="n">
-        <v>362.4469059700813</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H4" t="n">
-        <v>206.9683549315752</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I4" t="n">
-        <v>73.8739295686531</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>553.0699347512922</v>
       </c>
       <c r="W4" t="n">
-        <v>661.6122798674851</v>
+        <v>269.7395326824698</v>
       </c>
       <c r="X4" t="n">
-        <v>661.6122798674851</v>
+        <v>269.7395326824698</v>
       </c>
       <c r="Y4" t="n">
-        <v>661.6122798674851</v>
+        <v>46.62747149911317</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1397.331099067641</v>
+        <v>1177.044215914795</v>
       </c>
       <c r="C5" t="n">
-        <v>1397.331099067641</v>
+        <v>1177.044215914795</v>
       </c>
       <c r="D5" t="n">
-        <v>1011.889970284309</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="E5" t="n">
-        <v>1011.889970284309</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="F5" t="n">
-        <v>594.995531814287</v>
+        <v>374.7086486614406</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>365.5862971898479</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035832</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>547.1277883310449</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354912</v>
+        <v>1102.089684652127</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572953</v>
+        <v>1102.089684652127</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465282</v>
+        <v>1542.129285544455</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675977</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737752</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="U5" t="n">
-        <v>2128.890513431066</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="V5" t="n">
-        <v>1786.783704134585</v>
+        <v>1509.554926079861</v>
       </c>
       <c r="W5" t="n">
-        <v>1786.783704134585</v>
+        <v>1509.554926079861</v>
       </c>
       <c r="X5" t="n">
-        <v>1397.331099067641</v>
+        <v>1177.044215914795</v>
       </c>
       <c r="Y5" t="n">
-        <v>1397.331099067641</v>
+        <v>1177.044215914795</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442693</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475504</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475504</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>43.49565939475504</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653893</v>
+        <v>987.9600536479813</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875483</v>
+        <v>1155.938290490839</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466464</v>
+        <v>1669.540969100528</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182861</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737752</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737752</v>
+        <v>1916.314617614859</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813767</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492409</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863476</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996763</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467747</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>842.011333897423</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>690.1325207500984</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="C7" t="n">
-        <v>519.9274028160876</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="D7" t="n">
-        <v>364.2942897186023</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="E7" t="n">
-        <v>364.2942897186023</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="F7" t="n">
-        <v>206.9683549315752</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="G7" t="n">
-        <v>206.9683549315752</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9683549315752</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I7" t="n">
-        <v>73.8739295686531</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>875.3405394413996</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>875.3405394413996</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U7" t="n">
-        <v>875.3405394413996</v>
+        <v>454.6953937223412</v>
       </c>
       <c r="V7" t="n">
-        <v>875.3405394413996</v>
+        <v>382.1898164861458</v>
       </c>
       <c r="W7" t="n">
-        <v>875.3405394413996</v>
+        <v>382.1898164861458</v>
       </c>
       <c r="X7" t="n">
-        <v>875.3405394413996</v>
+        <v>382.1898164861458</v>
       </c>
       <c r="Y7" t="n">
-        <v>875.3405394413996</v>
+        <v>382.1898164861458</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1477.403224325005</v>
+        <v>1051.54548289616</v>
       </c>
       <c r="C8" t="n">
-        <v>1477.403224325005</v>
+        <v>658.3699813990904</v>
       </c>
       <c r="D8" t="n">
-        <v>1477.403224325005</v>
+        <v>658.3699813990904</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>255.7864565156349</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>242.9324220860168</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2104.154988922119</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>1848.402259356717</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V8" t="n">
-        <v>1848.402259356717</v>
+        <v>1819.035227007271</v>
       </c>
       <c r="W8" t="n">
-        <v>1477.403224325005</v>
+        <v>1448.036191975559</v>
       </c>
       <c r="X8" t="n">
-        <v>1477.403224325005</v>
+        <v>1448.036191975559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1477.403224325005</v>
+        <v>1051.54548289616</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154367</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>447.0615956321544</v>
+        <v>440.2091397016404</v>
       </c>
       <c r="C10" t="n">
-        <v>447.0615956321544</v>
+        <v>270.0040217676296</v>
       </c>
       <c r="D10" t="n">
-        <v>447.0615956321544</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="E10" t="n">
-        <v>447.0615956321544</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="F10" t="n">
-        <v>447.0615956321544</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>713.0409408113302</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>447.0615956321544</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W10" t="n">
-        <v>447.0615956321544</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="X10" t="n">
-        <v>447.0615956321544</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="Y10" t="n">
-        <v>447.0615956321544</v>
+        <v>440.2091397016404</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1467.291089243225</v>
+        <v>1452.672125045209</v>
       </c>
       <c r="C11" t="n">
-        <v>1145.911862892349</v>
+        <v>1131.292898694334</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.911862892349</v>
+        <v>817.6480450571952</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550877</v>
+        <v>817.6480450571952</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312595</v>
+        <v>472.5498817333669</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654569</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3044.311639526267</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2892.607312231878</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2708.65085781267</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2438.340323662382</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2438.340323662382</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2120.683993741633</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="Y11" t="n">
-        <v>1795.989559808428</v>
+        <v>1781.370595610412</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>216.7257955609483</v>
+        <v>424.5048630898966</v>
       </c>
       <c r="C13" t="n">
-        <v>118.3169527731316</v>
+        <v>326.0960203020796</v>
       </c>
       <c r="D13" t="n">
-        <v>118.3169527731316</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="E13" t="n">
-        <v>118.3169527731316</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="F13" t="n">
-        <v>118.3169527731316</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1421.156413384172</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1257.2336366986</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245445</v>
+        <v>1257.2336366986</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915626</v>
+        <v>1063.050566665618</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689341</v>
+        <v>851.5164397429897</v>
       </c>
       <c r="X13" t="n">
-        <v>368.0415815981111</v>
+        <v>689.2323926721667</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.7257955609483</v>
+        <v>537.916606635004</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1719.577864530541</v>
+        <v>1229.733075037216</v>
       </c>
       <c r="C14" t="n">
-        <v>1398.198638179665</v>
+        <v>908.3538486863401</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>908.3538486863401</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>577.5665989490785</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>232.4684356252501</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>128.659969465457</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2770.29560349218</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2499.985069341893</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543617</v>
+        <v>2200.782309456374</v>
       </c>
       <c r="X14" t="n">
-        <v>1788.408699622868</v>
+        <v>1883.125979535624</v>
       </c>
       <c r="Y14" t="n">
-        <v>1719.577864530541</v>
+        <v>1558.431545602419</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2184.144245539707</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>155.4187662370698</v>
+        <v>474.9551552953889</v>
       </c>
       <c r="C16" t="n">
-        <v>155.4187662370698</v>
+        <v>376.5463125075719</v>
       </c>
       <c r="D16" t="n">
-        <v>145.8816646987191</v>
+        <v>292.7094745562806</v>
       </c>
       <c r="E16" t="n">
-        <v>62.11912770411553</v>
+        <v>208.946937561677</v>
       </c>
       <c r="F16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581889</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027732</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457735</v>
+        <v>1230.985410981373</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127915</v>
+        <v>1036.802340948391</v>
       </c>
       <c r="W16" t="n">
-        <v>582.4303428901629</v>
+        <v>901.9667319484821</v>
       </c>
       <c r="X16" t="n">
-        <v>420.1462958193399</v>
+        <v>739.6826848776591</v>
       </c>
       <c r="Y16" t="n">
-        <v>268.8305097821772</v>
+        <v>588.3668988404963</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,25 +5540,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,49 +5674,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,7 +5774,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829236</v>
@@ -5786,13 +5786,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5835,19 +5835,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N21" t="n">
-        <v>2262.088962721623</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229905</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222409</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960407</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343048</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N22" t="n">
-        <v>683.142663665514</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072221</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N25" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O25" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F26" t="n">
         <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.903663714218</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,22 +6224,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>606.9665031662627</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614365</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>813.7807714052482</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
@@ -6385,49 +6385,49 @@
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6455,40 +6455,40 @@
         <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2602.11893248314</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>3135.209895105042</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3483.397387236564</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
@@ -6534,28 +6534,28 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="L30" t="n">
-        <v>73.36485894755026</v>
+        <v>357.2653989400741</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>985.0370485667553</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1640.815019777314</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192013</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225747</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904121</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351195</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222133</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463681</v>
+        <v>904.3560533993086</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057103</v>
+        <v>601.3807258108113</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230778</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189325</v>
+        <v>91.97314162835529</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407617</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766598</v>
+        <v>323.857029086156</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311916</v>
+        <v>682.8393851136178</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.04615434972</v>
+        <v>1287.811797407129</v>
       </c>
       <c r="M32" t="n">
-        <v>1928.320147121371</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2504.304758873286</v>
+        <v>2404.684126952459</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765614</v>
+        <v>2844.723727844787</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897136</v>
+        <v>3192.911219976309</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038085</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038085</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.2744199085</v>
+        <v>3325.162335939834</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397281</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761244</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394126</v>
+        <v>2845.559527281943</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291779</v>
+        <v>2588.479603131756</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.5154531542</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004165</v>
+        <v>2030.374510748463</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282492</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407617</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J33" t="n">
-        <v>69.5475482407617</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>69.5475482407617</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>69.5475482407617</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1639.753320993171</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965145</v>
+        <v>365.671367692973</v>
       </c>
       <c r="C34" t="n">
-        <v>350.429060991868</v>
+        <v>309.3853606404872</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237471</v>
+        <v>267.6713584245271</v>
       </c>
       <c r="E34" t="n">
-        <v>254.058261612314</v>
+        <v>226.0316571652546</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546513</v>
+        <v>182.6248332597526</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834612</v>
+        <v>128.2898902407232</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431948</v>
+        <v>86.73045008374223</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407617</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803361</v>
+        <v>261.0422972872697</v>
       </c>
       <c r="L34" t="n">
-        <v>391.0095793541359</v>
+        <v>425.1699371610695</v>
       </c>
       <c r="M34" t="n">
-        <v>682.57425041947</v>
+        <v>723.1136360743162</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770996</v>
+        <v>982.3291861103392</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145878</v>
+        <v>1256.68607372703</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649526</v>
+        <v>1376.562239503608</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746647</v>
+        <v>1379.984435873659</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308588</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420502</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501595</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689366</v>
+        <v>987.7859626250208</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395544</v>
+        <v>835.72572832737</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000963</v>
+        <v>666.3144371400726</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124437</v>
+        <v>546.1532258045808</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584514</v>
+        <v>436.9602755027492</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7014,13 +7014,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>62.11912770411553</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M36" t="n">
         <v>568.1699486069232</v>
@@ -7105,16 +7105,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7157,13 +7157,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7342,13 +7342,13 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
         <v>1090.581152532863</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
@@ -7400,10 +7400,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,13 +7436,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7451,7 +7451,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229859</v>
+        <v>67.69877031229836</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222405</v>
+        <v>278.5901810446688</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960402</v>
+        <v>442.7178209184686</v>
       </c>
       <c r="M43" t="n">
-        <v>499.9530296343043</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655135</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072216</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P43" t="n">
-        <v>965.7235964838002</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7676,10 +7676,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
@@ -7688,7 +7688,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>149.53381142224</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960398</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343038</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655136</v>
+        <v>683.1426636655131</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>281.299931957205</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>502.3041380129503</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920155</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>265.5945316656636</v>
+        <v>611.1777065035433</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.162697308398</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>297.8880658390599</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,13 +8219,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>277.7768138244406</v>
+        <v>214.0018366896157</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>533.3182154539929</v>
+        <v>611.1777065035433</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886046</v>
+        <v>255.047099564124</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431203</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581657</v>
+        <v>663.2434089132782</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>535.2177063841971</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9009,22 +9009,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9243,25 +9243,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>335.1420048916687</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9483,7 +9483,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
@@ -9492,13 +9492,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>177.2623988786017</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>603.5495674056832</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,16 +9951,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>603.549567405683</v>
+        <v>403.0555909136999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10194,10 +10194,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>376.8285690715887</v>
       </c>
       <c r="M30" t="n">
-        <v>603.549567405683</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10206,7 +10206,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,22 +10425,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,16 +10662,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>486.9652344155852</v>
       </c>
       <c r="M36" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>515.2544481366739</v>
       </c>
       <c r="M42" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,16 +11373,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>400.7288157213065</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>247.2657099513562</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.74180889091431</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>39.85735414849108</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>106.4728115175294</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>235.1824340639495</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>253.3049628524689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>73.55673904881124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>75.93153274349231</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>-6.394884621840902e-13</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860538.7264917628</v>
+        <v>860538.7264917624</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>973793.7617041263</v>
+        <v>973793.7617041261</v>
       </c>
     </row>
     <row r="8">
@@ -26317,7 +26317,7 @@
         <v>288531.4849493708</v>
       </c>
       <c r="D2" t="n">
-        <v>288531.484949371</v>
+        <v>288531.4849493709</v>
       </c>
       <c r="E2" t="n">
         <v>254974.437479041</v>
@@ -26329,7 +26329,7 @@
         <v>288531.4849493708</v>
       </c>
       <c r="H2" t="n">
-        <v>288531.4849493708</v>
+        <v>288531.4849493709</v>
       </c>
       <c r="I2" t="n">
         <v>288531.4849493708</v>
@@ -26338,13 +26338,13 @@
         <v>288531.4849493703</v>
       </c>
       <c r="K2" t="n">
-        <v>288531.4849493703</v>
+        <v>288531.4849493704</v>
       </c>
       <c r="L2" t="n">
+        <v>288531.4849493711</v>
+      </c>
+      <c r="M2" t="n">
         <v>288531.4849493708</v>
-      </c>
-      <c r="M2" t="n">
-        <v>288531.4849493709</v>
       </c>
       <c r="N2" t="n">
         <v>288531.4849493708</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918562</v>
+        <v>173858.6570340554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062165</v>
+        <v>22558.42953401323</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945028</v>
+        <v>200285.8640399296</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728534</v>
+        <v>62456.2417753966</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962295</v>
+        <v>43252.52447081113</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277123</v>
+        <v>27767.69404277128</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243102</v>
+        <v>173918.2775005334</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243102</v>
+        <v>173918.2775005334</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373748</v>
+        <v>74084.49552373745</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373747</v>
+        <v>74084.49552373745</v>
       </c>
       <c r="G4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="H4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="I4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="J4" t="n">
-        <v>122593.9044797028</v>
+        <v>122593.9044797029</v>
       </c>
       <c r="K4" t="n">
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="O4" t="n">
         <v>121843.4120153197</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481727</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481727</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,19 +26485,19 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173853</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127563.8677068095</v>
+        <v>-124415.5171200353</v>
       </c>
       <c r="C6" t="n">
-        <v>54641.08058504685</v>
+        <v>49443.13991402017</v>
       </c>
       <c r="D6" t="n">
-        <v>49777.7982911719</v>
+        <v>42041.50906778025</v>
       </c>
       <c r="E6" t="n">
-        <v>15581.36078141845</v>
+        <v>15371.62923472898</v>
       </c>
       <c r="F6" t="n">
-        <v>127703.922255463</v>
+        <v>127494.1907087734</v>
       </c>
       <c r="G6" t="n">
-        <v>61092.97808184958</v>
+        <v>61092.97808184955</v>
       </c>
       <c r="H6" t="n">
+        <v>108518.3036185316</v>
+      </c>
+      <c r="I6" t="n">
+        <v>108518.3036185314</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-98007.32882418176</v>
+      </c>
+      <c r="K6" t="n">
+        <v>102278.5352157481</v>
+      </c>
+      <c r="L6" t="n">
+        <v>43047.10907065559</v>
+      </c>
+      <c r="M6" t="n">
+        <v>65265.77914772034</v>
+      </c>
+      <c r="N6" t="n">
         <v>108518.3036185315</v>
       </c>
-      <c r="I6" t="n">
-        <v>108518.3036185315</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-104523.6139787548</v>
-      </c>
-      <c r="K6" t="n">
-        <v>102278.535215748</v>
-      </c>
-      <c r="L6" t="n">
-        <v>47095.94628112756</v>
-      </c>
-      <c r="M6" t="n">
-        <v>66317.47415890863</v>
-      </c>
-      <c r="N6" t="n">
-        <v>108518.3036185316</v>
-      </c>
       <c r="O6" t="n">
-        <v>80750.60957576017</v>
+        <v>80750.60957576009</v>
       </c>
       <c r="P6" t="n">
-        <v>108518.3036185315</v>
+        <v>108518.3036185314</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="C4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095212</v>
+        <v>844.4391950293144</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660668</v>
+        <v>78.07030221924575</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551369</v>
+        <v>17.58004954287459</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.7096175534641</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485708</v>
+        <v>72.62154181506367</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773721</v>
+        <v>659.3622249971656</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407186</v>
+        <v>117.1268713042787</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485708</v>
+        <v>72.62154181506367</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>64.15425164146518</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,10 +27427,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>70.76633196925127</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27439,7 +27439,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27458,13 +27458,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>83.78860989218211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938626638</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>149.0037994711635</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>26.15046864227594</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27594,7 +27594,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>207.7616705261285</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>56.37247595285885</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>132.6819913403897</v>
       </c>
     </row>
     <row r="7">
@@ -27774,28 +27774,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>131.8818019093175</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>191.5390302635506</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27853,25 +27853,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>262.3209256632273</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>215.3678704922484</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>87.5364063452062</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28023,13 +28023,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>56.50762072365808</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28062,13 +28062,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28746,16 +28746,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.636002634529603</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668787</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28995,13 +28995,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>35.71049010668847</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>37.6129845773342</v>
       </c>
       <c r="S23" t="n">
         <v>130.3599693155844</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>35.71049010668867</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>35.71049010668801</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901255</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>30.27223765901306</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599527</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29746,43 +29746,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>48.65992738833597</v>
+        <v>43.49509683160295</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000707</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="N34" t="n">
-        <v>18.71446861254583</v>
+        <v>76.79385455031689</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30177,19 +30177,19 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>130.3599693155844</v>
@@ -30639,10 +30639,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668742</v>
+        <v>35.71049010668719</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30879,7 +30879,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>5.636002634527884</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>5.636002634528467</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>130.3599693155844</v>
@@ -32245,7 +32245,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>128.0517622267134</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>352.5790864152231</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>173.2074096163517</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>205.200506950171</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,13 +34939,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>128.0517622267134</v>
+        <v>64.27678509188846</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>440.9310934046811</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="N6" t="n">
-        <v>543.695742434438</v>
+        <v>169.6749867099574</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088538</v>
+        <v>570.8562868639664</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>442.5301474953082</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O17" t="n">
         <v>444.4844453457863</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>249.769892037502</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,16 +36042,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094884</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
@@ -36212,13 +36212,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528801</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36291,13 +36291,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>200.0587396437673</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>9.186815169423518e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>511.1624453563713</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594806</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,7 +36531,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>156.7975262446462</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907922</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>563.4149484039242</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>511.1624453563711</v>
+        <v>310.668468864388</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101042</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>619.7932383009064</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>286.7682222146705</v>
       </c>
       <c r="M30" t="n">
-        <v>511.1624453563711</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -36926,7 +36926,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261597</v>
+        <v>258.8908014987988</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318503</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.0832447409208</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511622</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>581.8026381332471</v>
+        <v>576.6378075765141</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187093</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791163</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.4415774595197</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>300.9532312255017</v>
       </c>
       <c r="N34" t="n">
-        <v>203.7545029875046</v>
+        <v>261.8338889252757</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371495</v>
+        <v>277.1281693097886</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102232</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>396.904887558667</v>
       </c>
       <c r="M36" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
@@ -37473,19 +37473,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q37" t="n">
-        <v>131.7547461184303</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832366</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37719,7 +37719,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.7547461184303</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
         <v>7.697989841835579</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="M42" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634528348</v>
+        <v>5.636002634528118</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37956,7 +37956,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>310.6684688643883</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133786</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38184,7 +38184,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>190.6760370094873</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>294.7082188526633</v>
